--- a/8-) Turkiye'de tekstilde HS4 ihracat ve ithalat kirilimlari.xlsx
+++ b/8-) Turkiye'de tekstilde HS4 ihracat ve ithalat kirilimlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Dis-Ticaret-Tekstil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C2C78559FFE97E40A6BE7ECD6CD3FDA27450B9B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9CDA1A2-FDAB-42D1-ABCC-0FAC5B1A5C04}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C2C78559FFE97E40A6BE7ECD6CD3FDA27450B9B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E78028AE-BF2E-45EC-BAF1-C3D7FE2D4943}"/>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="885" windowWidth="12420" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1200" windowWidth="14205" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HS4 Bazında İhracat" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1829"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A1593" workbookViewId="0">
+      <selection activeCell="H1594" sqref="H1594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
